--- a/modelos/OBAGRA4451108/OBAGRA4451108_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451108/OBAGRA4451108_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,276 +473,276 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44761</v>
+        <v>44754</v>
       </c>
       <c r="B2" t="n">
-        <v>28.33023559607316</v>
+        <v>47.11125120723927</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.4520037026833</v>
+        <v>16.27761307097472</v>
       </c>
       <c r="D2" t="n">
-        <v>59.52776064571827</v>
+        <v>77.11534781232294</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44754</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44796</v>
+        <v>44761</v>
       </c>
       <c r="B3" t="n">
-        <v>53.76257839705833</v>
+        <v>29.92099166264084</v>
       </c>
       <c r="C3" t="n">
-        <v>23.88224836897377</v>
+        <v>-0.8917790599761771</v>
       </c>
       <c r="D3" t="n">
-        <v>85.34394377481682</v>
+        <v>60.38429107792108</v>
       </c>
       <c r="E3" t="n">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44789</v>
+        <v>44754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
       <c r="B4" t="n">
-        <v>50.20367808447135</v>
+        <v>55.80327972574531</v>
       </c>
       <c r="C4" t="n">
-        <v>16.87198890144755</v>
+        <v>25.23968356594282</v>
       </c>
       <c r="D4" t="n">
-        <v>83.05908783306387</v>
+        <v>85.92238751213625</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44796</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B5" t="n">
-        <v>39.54119608457163</v>
+        <v>52.33144818100233</v>
       </c>
       <c r="C5" t="n">
-        <v>7.849397760089402</v>
+        <v>18.14220213982409</v>
       </c>
       <c r="D5" t="n">
-        <v>69.48269377592347</v>
+        <v>82.41373469982175</v>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44803</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44817</v>
+        <v>44806</v>
       </c>
       <c r="B6" t="n">
-        <v>90.79084735067032</v>
+        <v>42.09953446478406</v>
       </c>
       <c r="C6" t="n">
-        <v>58.17613641146939</v>
+        <v>13.29850920621845</v>
       </c>
       <c r="D6" t="n">
-        <v>122.4279957473837</v>
+        <v>71.99165429988288</v>
       </c>
       <c r="E6" t="n">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44810</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="B7" t="n">
-        <v>111.0265982692878</v>
+        <v>92.9529975180746</v>
       </c>
       <c r="C7" t="n">
-        <v>79.9297451947624</v>
+        <v>61.82106520360971</v>
       </c>
       <c r="D7" t="n">
-        <v>141.814627487961</v>
+        <v>123.7648547211044</v>
       </c>
       <c r="E7" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B8" t="n">
-        <v>103.8223836399018</v>
+        <v>112.9638112869484</v>
       </c>
       <c r="C8" t="n">
-        <v>70.69260730021553</v>
+        <v>79.49430866236862</v>
       </c>
       <c r="D8" t="n">
-        <v>134.0730961554975</v>
+        <v>144.4196693878196</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B9" t="n">
-        <v>82.48021827551267</v>
+        <v>108.469248152558</v>
       </c>
       <c r="C9" t="n">
-        <v>51.54966521031945</v>
+        <v>76.73751666767296</v>
       </c>
       <c r="D9" t="n">
-        <v>116.6001062570011</v>
+        <v>140.310624764029</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44873</v>
+        <v>44838</v>
       </c>
       <c r="B10" t="n">
-        <v>56.67346243581856</v>
+        <v>84.76438677020357</v>
       </c>
       <c r="C10" t="n">
-        <v>21.16257957872276</v>
+        <v>50.76762751682016</v>
       </c>
       <c r="D10" t="n">
-        <v>90.39622656461506</v>
+        <v>117.4095932862568</v>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44866</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B11" t="n">
-        <v>45.55713368368115</v>
+        <v>57.67720343850779</v>
       </c>
       <c r="C11" t="n">
-        <v>10.22160505095436</v>
+        <v>26.48866394732089</v>
       </c>
       <c r="D11" t="n">
-        <v>79.28145034252353</v>
+        <v>91.79453109890331</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B12" t="n">
-        <v>49.05714697489721</v>
+        <v>45.18680026047755</v>
       </c>
       <c r="C12" t="n">
-        <v>15.59949163680139</v>
+        <v>11.56101206884468</v>
       </c>
       <c r="D12" t="n">
-        <v>82.27005256858523</v>
+        <v>77.04766190170432</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B13" t="n">
-        <v>58.93314020428677</v>
+        <v>51.4121948827968</v>
       </c>
       <c r="C13" t="n">
-        <v>26.76400096872433</v>
+        <v>21.341469436198</v>
       </c>
       <c r="D13" t="n">
-        <v>94.95470874185803</v>
+        <v>82.96283652742473</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B14" t="n">
-        <v>48.45035941735173</v>
+        <v>60.91182216996526</v>
       </c>
       <c r="C14" t="n">
-        <v>15.92197106489398</v>
+        <v>30.65700135932111</v>
       </c>
       <c r="D14" t="n">
-        <v>82.90014222499737</v>
+        <v>93.38069139654569</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B15" t="n">
-        <v>50.66993940887454</v>
+        <v>52.78177826323731</v>
       </c>
       <c r="C15" t="n">
-        <v>18.13565839355048</v>
+        <v>20.39697905940868</v>
       </c>
       <c r="D15" t="n">
-        <v>82.78363817130925</v>
+        <v>86.60073185758679</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
@@ -753,119 +753,119 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B16" t="n">
-        <v>32.0338144221677</v>
+        <v>54.35771405194105</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2720823802713653</v>
+        <v>20.67457008680046</v>
       </c>
       <c r="D16" t="n">
-        <v>62.91735872401524</v>
+        <v>87.59696546530121</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B17" t="n">
-        <v>32.91432725956652</v>
+        <v>34.18426344122502</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.316317392721381</v>
+        <v>0.9486790603738761</v>
       </c>
       <c r="D17" t="n">
-        <v>65.64715163424337</v>
+        <v>65.88938092657254</v>
       </c>
       <c r="E17" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
       <c r="B18" t="n">
-        <v>73.80673332766517</v>
+        <v>35.15297663086531</v>
       </c>
       <c r="C18" t="n">
-        <v>41.14057302324313</v>
+        <v>4.482474088623506</v>
       </c>
       <c r="D18" t="n">
-        <v>109.870689357065</v>
+        <v>65.76312321472747</v>
       </c>
       <c r="E18" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44950</v>
+        <v>44929</v>
       </c>
       <c r="B19" t="n">
-        <v>58.86941027466771</v>
+        <v>72.40415176694194</v>
       </c>
       <c r="C19" t="n">
-        <v>25.48698173222698</v>
+        <v>39.77433449634648</v>
       </c>
       <c r="D19" t="n">
-        <v>91.77075808215399</v>
+        <v>109.296775000283</v>
       </c>
       <c r="E19" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44946</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B20" t="n">
-        <v>33.73712671764601</v>
+        <v>59.61913596548668</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.433175751521263</v>
+        <v>26.35722562590421</v>
       </c>
       <c r="D20" t="n">
-        <v>64.80875523491953</v>
+        <v>92.3929508486016</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44953</v>
+        <v>44946</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B21" t="n">
-        <v>22.93601407345255</v>
+        <v>35.51154634194705</v>
       </c>
       <c r="C21" t="n">
-        <v>-9.605363753418807</v>
+        <v>2.917821020178743</v>
       </c>
       <c r="D21" t="n">
-        <v>57.44282562734915</v>
+        <v>68.31560737289655</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>44953</v>
@@ -873,39 +873,39 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44980</v>
+        <v>44960</v>
       </c>
       <c r="B22" t="n">
-        <v>54.08599238283983</v>
+        <v>25.59559860459816</v>
       </c>
       <c r="C22" t="n">
-        <v>20.65460512457588</v>
+        <v>-5.582983302718227</v>
       </c>
       <c r="D22" t="n">
-        <v>87.69505829521356</v>
+        <v>59.60259420382816</v>
       </c>
       <c r="E22" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44978</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B23" t="n">
-        <v>66.64567697061671</v>
+        <v>54.23404806202402</v>
       </c>
       <c r="C23" t="n">
-        <v>32.71951625156806</v>
+        <v>19.24717397824659</v>
       </c>
       <c r="D23" t="n">
-        <v>98.91073166440857</v>
+        <v>85.7458652093962</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>44978</v>
@@ -913,201 +913,221 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
       <c r="B24" t="n">
-        <v>72.73973220841427</v>
+        <v>68.32285093013249</v>
       </c>
       <c r="C24" t="n">
-        <v>38.64815395762076</v>
+        <v>35.99293414707152</v>
       </c>
       <c r="D24" t="n">
-        <v>105.9143107296196</v>
+        <v>100.2669617713852</v>
       </c>
       <c r="E24" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B25" t="n">
-        <v>70.43982995472307</v>
+        <v>76.67485932462743</v>
       </c>
       <c r="C25" t="n">
-        <v>35.59182657320621</v>
+        <v>43.05848055231973</v>
       </c>
       <c r="D25" t="n">
-        <v>104.697755830745</v>
+        <v>111.2904165024239</v>
       </c>
       <c r="E25" t="n">
         <v>54</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B26" t="n">
-        <v>58.99207810596304</v>
+        <v>71.99180256029716</v>
       </c>
       <c r="C26" t="n">
-        <v>24.54320667805646</v>
+        <v>39.63360077078962</v>
       </c>
       <c r="D26" t="n">
-        <v>90.47424003739197</v>
+        <v>103.6505873619454</v>
       </c>
       <c r="E26" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B27" t="n">
-        <v>57.52964043021784</v>
+        <v>59.57867495250568</v>
       </c>
       <c r="C27" t="n">
-        <v>24.42324950314202</v>
+        <v>25.81759293289405</v>
       </c>
       <c r="D27" t="n">
-        <v>90.46825083296031</v>
+        <v>92.85233785519387</v>
       </c>
       <c r="E27" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B28" t="n">
-        <v>69.4459807384861</v>
+        <v>53.06352950986172</v>
       </c>
       <c r="C28" t="n">
-        <v>38.41222573657424</v>
+        <v>19.47529869089226</v>
       </c>
       <c r="D28" t="n">
-        <v>103.7948538106437</v>
+        <v>88.59234630958372</v>
       </c>
       <c r="E28" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B29" t="n">
-        <v>90.89227723866654</v>
+        <v>64.47321383892749</v>
       </c>
       <c r="C29" t="n">
-        <v>58.86850022430328</v>
+        <v>32.25690876714596</v>
       </c>
       <c r="D29" t="n">
-        <v>125.4045569263424</v>
+        <v>95.60799332984593</v>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B30" t="n">
-        <v>105.3183032776288</v>
+        <v>85.51085930429208</v>
       </c>
       <c r="C30" t="n">
-        <v>74.34135356758416</v>
+        <v>52.3181813383117</v>
       </c>
       <c r="D30" t="n">
-        <v>139.2076782270229</v>
+        <v>117.6127900527647</v>
       </c>
       <c r="E30" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B31" t="n">
-        <v>82.21400576817545</v>
+        <v>102.7609118032068</v>
       </c>
       <c r="C31" t="n">
-        <v>51.66870836739782</v>
+        <v>69.32204534241177</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8999453281158</v>
+        <v>135.8317919059752</v>
       </c>
       <c r="E31" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B32" t="n">
-        <v>81.23329201606097</v>
+        <v>81.62037110174444</v>
       </c>
       <c r="C32" t="n">
-        <v>49.5669289332431</v>
+        <v>50.07468561412995</v>
       </c>
       <c r="D32" t="n">
-        <v>112.8552198998779</v>
+        <v>114.0124952121508</v>
       </c>
       <c r="E32" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B33" t="n">
+        <v>85.18948949400539</v>
+      </c>
+      <c r="C33" t="n">
+        <v>53.04484454447989</v>
+      </c>
+      <c r="D33" t="n">
+        <v>119.2840447209057</v>
+      </c>
+      <c r="E33" t="n">
+        <v>78</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B33" t="n">
-        <v>31.13297733035228</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-2.579844917506651</v>
-      </c>
-      <c r="D33" t="n">
-        <v>62.8539483104116</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="B34" t="n">
+        <v>30.87591981558835</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.889955281391502</v>
+      </c>
+      <c r="D34" t="n">
+        <v>63.97778011946262</v>
+      </c>
+      <c r="E34" t="n">
         <v>54</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F34" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1177,22 +1197,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2791.375863156356</v>
+        <v>2765.485480144469</v>
       </c>
       <c r="C2" t="n">
-        <v>52.83347294240988</v>
+        <v>52.58788339669575</v>
       </c>
       <c r="D2" t="n">
-        <v>46.94105698331342</v>
+        <v>47.48273191214307</v>
       </c>
       <c r="E2" t="n">
-        <v>1.33820327510673</v>
+        <v>1.450781253191918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6704900326285698</v>
+        <v>0.6491705461267995</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8588949753822631</v>
+        <v>0.8598824495635903</v>
       </c>
       <c r="H2" t="n">
         <v>0.3333333333333333</v>
@@ -1203,22 +1223,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1399.889011232182</v>
+        <v>1402.209693235782</v>
       </c>
       <c r="C3" t="n">
-        <v>37.4150906885468</v>
+        <v>37.446090493345</v>
       </c>
       <c r="D3" t="n">
-        <v>26.35370621956793</v>
+        <v>27.49060140222011</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7934111694042669</v>
+        <v>0.8756824942344495</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4016526255873266</v>
+        <v>0.4195032372734923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5196802519443461</v>
+        <v>0.541709052718176</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1229,22 +1249,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>321.1535392141657</v>
+        <v>345.5653053531387</v>
       </c>
       <c r="C4" t="n">
-        <v>17.92075721653987</v>
+        <v>18.58938690094804</v>
       </c>
       <c r="D4" t="n">
-        <v>15.46417707471276</v>
+        <v>16.5034370685631</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2549942406752513</v>
+        <v>0.2824924239345745</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2387592058502273</v>
+        <v>0.2442558231319959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2409577359691429</v>
+        <v>0.2644220453669556</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1255,25 +1275,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>993.0074691871463</v>
+        <v>1023.699121200187</v>
       </c>
       <c r="C5" t="n">
-        <v>31.51202102669942</v>
+        <v>31.99529842336507</v>
       </c>
       <c r="D5" t="n">
-        <v>24.51308192447921</v>
+        <v>24.80711948553941</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8174697052968239</v>
+        <v>0.8326391648867369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3647449425001018</v>
+        <v>0.4104052276682031</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4641250923047331</v>
+        <v>0.4618770834678063</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7307692307692312</v>
+        <v>0.7037037037037036</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAGRA4451108/OBAGRA4451108_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451108/OBAGRA4451108_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,661 +473,621 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44754</v>
+        <v>44796</v>
       </c>
       <c r="B2" t="n">
-        <v>47.11125120723927</v>
+        <v>56.0053595818525</v>
       </c>
       <c r="C2" t="n">
-        <v>16.27761307097472</v>
+        <v>26.78594758509114</v>
       </c>
       <c r="D2" t="n">
-        <v>77.11534781232294</v>
+        <v>88.91032367321425</v>
       </c>
       <c r="E2" t="n">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44747</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44761</v>
+        <v>44803</v>
       </c>
       <c r="B3" t="n">
-        <v>29.92099166264084</v>
+        <v>51.7027688124158</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8917790599761771</v>
+        <v>17.29679344749626</v>
       </c>
       <c r="D3" t="n">
-        <v>60.38429107792108</v>
+        <v>84.62410404693746</v>
       </c>
       <c r="E3" t="n">
         <v>48</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44754</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44796</v>
+        <v>44806</v>
       </c>
       <c r="B4" t="n">
-        <v>55.80327972574531</v>
+        <v>38.4722116571559</v>
       </c>
       <c r="C4" t="n">
-        <v>25.23968356594282</v>
+        <v>6.483147982998657</v>
       </c>
       <c r="D4" t="n">
-        <v>85.92238751213625</v>
+        <v>72.63568655822722</v>
       </c>
       <c r="E4" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44789</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44803</v>
+        <v>44817</v>
       </c>
       <c r="B5" t="n">
-        <v>52.33144818100233</v>
+        <v>91.17634673758751</v>
       </c>
       <c r="C5" t="n">
-        <v>18.14220213982409</v>
+        <v>56.19272156712988</v>
       </c>
       <c r="D5" t="n">
-        <v>82.41373469982175</v>
+        <v>124.6902479150863</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44796</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44806</v>
+        <v>44824</v>
       </c>
       <c r="B6" t="n">
-        <v>42.09953446478406</v>
+        <v>110.6763853711319</v>
       </c>
       <c r="C6" t="n">
-        <v>13.29850920621845</v>
+        <v>76.6507695889662</v>
       </c>
       <c r="D6" t="n">
-        <v>71.99165429988288</v>
+        <v>142.4745100939913</v>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44803</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44817</v>
+        <v>44831</v>
       </c>
       <c r="B7" t="n">
-        <v>92.9529975180746</v>
+        <v>105.3094033182115</v>
       </c>
       <c r="C7" t="n">
-        <v>61.82106520360971</v>
+        <v>70.86174650616177</v>
       </c>
       <c r="D7" t="n">
-        <v>123.7648547211044</v>
+        <v>139.3203520689361</v>
       </c>
       <c r="E7" t="n">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44810</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44824</v>
+        <v>44838</v>
       </c>
       <c r="B8" t="n">
-        <v>112.9638112869484</v>
+        <v>82.66589094986091</v>
       </c>
       <c r="C8" t="n">
-        <v>79.49430866236862</v>
+        <v>49.93306718123313</v>
       </c>
       <c r="D8" t="n">
-        <v>144.4196693878196</v>
+        <v>119.5779711142587</v>
       </c>
       <c r="E8" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44817</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44831</v>
+        <v>44873</v>
       </c>
       <c r="B9" t="n">
-        <v>108.469248152558</v>
+        <v>56.85433687628116</v>
       </c>
       <c r="C9" t="n">
-        <v>76.73751666767296</v>
+        <v>19.60466403938538</v>
       </c>
       <c r="D9" t="n">
-        <v>140.310624764029</v>
+        <v>92.31719943017603</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44824</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44838</v>
+        <v>44880</v>
       </c>
       <c r="B10" t="n">
-        <v>84.76438677020357</v>
+        <v>44.24695652097347</v>
       </c>
       <c r="C10" t="n">
-        <v>50.76762751682016</v>
+        <v>10.6641023253618</v>
       </c>
       <c r="D10" t="n">
-        <v>117.4095932862568</v>
+        <v>79.15169925652431</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44831</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
       <c r="B11" t="n">
-        <v>57.67720343850779</v>
+        <v>47.58119245526617</v>
       </c>
       <c r="C11" t="n">
-        <v>26.48866394732089</v>
+        <v>13.70757795176942</v>
       </c>
       <c r="D11" t="n">
-        <v>91.79453109890331</v>
+        <v>82.34389917127669</v>
       </c>
       <c r="E11" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44866</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="B12" t="n">
-        <v>45.18680026047755</v>
+        <v>58.01025197606883</v>
       </c>
       <c r="C12" t="n">
-        <v>11.56101206884468</v>
+        <v>23.59542713482914</v>
       </c>
       <c r="D12" t="n">
-        <v>77.04766190170432</v>
+        <v>91.26735548006931</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="B13" t="n">
-        <v>51.4121948827968</v>
+        <v>47.71656341097926</v>
       </c>
       <c r="C13" t="n">
-        <v>21.341469436198</v>
+        <v>13.8028479147848</v>
       </c>
       <c r="D13" t="n">
-        <v>82.96283652742473</v>
+        <v>82.64599676184662</v>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="B14" t="n">
+        <v>52.25970095988021</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19.93380707507151</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87.43866067552328</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B14" t="n">
-        <v>60.91182216996526</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30.65700135932111</v>
-      </c>
-      <c r="D14" t="n">
-        <v>93.38069139654569</v>
-      </c>
-      <c r="E14" t="n">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44897</v>
+        <v>44908</v>
       </c>
       <c r="B15" t="n">
-        <v>52.78177826323731</v>
+        <v>34.20754355518149</v>
       </c>
       <c r="C15" t="n">
-        <v>20.39697905940868</v>
+        <v>-0.1847858278680505</v>
       </c>
       <c r="D15" t="n">
-        <v>86.60073185758679</v>
+        <v>68.28924472076443</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44894</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
       <c r="B16" t="n">
-        <v>54.35771405194105</v>
+        <v>33.27091069206909</v>
       </c>
       <c r="C16" t="n">
-        <v>20.67457008680046</v>
+        <v>-1.725875271749189</v>
       </c>
       <c r="D16" t="n">
-        <v>87.59696546530121</v>
+        <v>65.65719104448856</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44908</v>
+        <v>44929</v>
       </c>
       <c r="B17" t="n">
-        <v>34.18426344122502</v>
+        <v>73.14409804549013</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9486790603738761</v>
+        <v>39.60668734876004</v>
       </c>
       <c r="D17" t="n">
-        <v>65.88938092657254</v>
+        <v>106.7616502067151</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44901</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44915</v>
+        <v>44950</v>
       </c>
       <c r="B18" t="n">
-        <v>35.15297663086531</v>
+        <v>57.84298131430039</v>
       </c>
       <c r="C18" t="n">
-        <v>4.482474088623506</v>
+        <v>23.40470157120993</v>
       </c>
       <c r="D18" t="n">
-        <v>65.76312321472747</v>
+        <v>91.96600063125726</v>
       </c>
       <c r="E18" t="n">
         <v>42</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44908</v>
+        <v>44946</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44929</v>
+        <v>44957</v>
       </c>
       <c r="B19" t="n">
-        <v>72.40415176694194</v>
+        <v>33.320765743663</v>
       </c>
       <c r="C19" t="n">
-        <v>39.77433449634648</v>
+        <v>-0.6154445473529351</v>
       </c>
       <c r="D19" t="n">
-        <v>109.296775000283</v>
+        <v>66.788569040654</v>
       </c>
       <c r="E19" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44922</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44950</v>
+        <v>44960</v>
       </c>
       <c r="B20" t="n">
-        <v>59.61913596548668</v>
+        <v>21.255770000746</v>
       </c>
       <c r="C20" t="n">
-        <v>26.35722562590421</v>
+        <v>-13.43193940021579</v>
       </c>
       <c r="D20" t="n">
-        <v>92.3929508486016</v>
+        <v>56.33692846861477</v>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44946</v>
+        <v>44953</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44957</v>
+        <v>44980</v>
       </c>
       <c r="B21" t="n">
-        <v>35.51154634194705</v>
+        <v>65.05195263665746</v>
       </c>
       <c r="C21" t="n">
-        <v>2.917821020178743</v>
+        <v>31.49459955028641</v>
       </c>
       <c r="D21" t="n">
-        <v>68.31560737289655</v>
+        <v>97.41084468582071</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44953</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44960</v>
+        <v>44985</v>
       </c>
       <c r="B22" t="n">
-        <v>25.59559860459816</v>
+        <v>78.05372504934272</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.582983302718227</v>
+        <v>43.80489650916125</v>
       </c>
       <c r="D22" t="n">
-        <v>59.60259420382816</v>
+        <v>113.0558055037747</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44953</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44980</v>
+        <v>44992</v>
       </c>
       <c r="B23" t="n">
-        <v>54.23404806202402</v>
+        <v>78.50710947055046</v>
       </c>
       <c r="C23" t="n">
-        <v>19.24717397824659</v>
+        <v>42.58554217510144</v>
       </c>
       <c r="D23" t="n">
-        <v>85.7458652093962</v>
+        <v>111.0793399212761</v>
       </c>
       <c r="E23" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="B24" t="n">
-        <v>68.32285093013249</v>
+        <v>70.40884863820068</v>
       </c>
       <c r="C24" t="n">
-        <v>35.99293414707152</v>
+        <v>34.45186332177008</v>
       </c>
       <c r="D24" t="n">
-        <v>100.2669617713852</v>
+        <v>107.0033608660675</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44978</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="B25" t="n">
-        <v>76.67485932462743</v>
+        <v>57.6602469216122</v>
       </c>
       <c r="C25" t="n">
-        <v>43.05848055231973</v>
+        <v>21.8125226575627</v>
       </c>
       <c r="D25" t="n">
-        <v>111.2904165024239</v>
+        <v>92.50840378006858</v>
       </c>
       <c r="E25" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B26" t="n">
-        <v>71.99180256029716</v>
+        <v>55.77962030064073</v>
       </c>
       <c r="C26" t="n">
-        <v>39.63360077078962</v>
+        <v>23.72394907244089</v>
       </c>
       <c r="D26" t="n">
-        <v>103.6505873619454</v>
+        <v>86.48968893518716</v>
       </c>
       <c r="E26" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="B27" t="n">
-        <v>59.57867495250568</v>
+        <v>69.6830747289967</v>
       </c>
       <c r="C27" t="n">
-        <v>25.81759293289405</v>
+        <v>37.12968089492216</v>
       </c>
       <c r="D27" t="n">
-        <v>92.85233785519387</v>
+        <v>103.9782051904028</v>
       </c>
       <c r="E27" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="B28" t="n">
-        <v>53.06352950986172</v>
+        <v>91.69885038779505</v>
       </c>
       <c r="C28" t="n">
-        <v>19.47529869089226</v>
+        <v>56.27182327053227</v>
       </c>
       <c r="D28" t="n">
-        <v>88.59234630958372</v>
+        <v>126.1660744480378</v>
       </c>
       <c r="E28" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="B29" t="n">
-        <v>64.47321383892749</v>
+        <v>105.1740035620049</v>
       </c>
       <c r="C29" t="n">
-        <v>32.25690876714596</v>
+        <v>71.85229087846234</v>
       </c>
       <c r="D29" t="n">
-        <v>95.60799332984593</v>
+        <v>141.323144657613</v>
       </c>
       <c r="E29" t="n">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B30" t="n">
-        <v>85.51085930429208</v>
+        <v>75.91797563549919</v>
       </c>
       <c r="C30" t="n">
-        <v>52.3181813383117</v>
+        <v>41.65981451729077</v>
       </c>
       <c r="D30" t="n">
-        <v>117.6127900527647</v>
+        <v>111.5881336006501</v>
       </c>
       <c r="E30" t="n">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="B31" t="n">
-        <v>102.7609118032068</v>
+        <v>80.71049485907702</v>
       </c>
       <c r="C31" t="n">
-        <v>69.32204534241177</v>
+        <v>46.44898866612979</v>
       </c>
       <c r="D31" t="n">
-        <v>135.8317919059752</v>
+        <v>116.3664759486094</v>
       </c>
       <c r="E31" t="n">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45027</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45040</v>
+        <v>45062</v>
       </c>
       <c r="B32" t="n">
-        <v>81.62037110174444</v>
+        <v>29.18098723511383</v>
       </c>
       <c r="C32" t="n">
-        <v>50.07468561412995</v>
+        <v>-5.727797587695648</v>
       </c>
       <c r="D32" t="n">
-        <v>114.0124952121508</v>
+        <v>61.99893256111737</v>
       </c>
       <c r="E32" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45034</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45048</v>
-      </c>
-      <c r="B33" t="n">
-        <v>85.18948949400539</v>
-      </c>
-      <c r="C33" t="n">
-        <v>53.04484454447989</v>
-      </c>
-      <c r="D33" t="n">
-        <v>119.2840447209057</v>
-      </c>
-      <c r="E33" t="n">
-        <v>78</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B34" t="n">
-        <v>30.87591981558835</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-1.889955281391502</v>
-      </c>
-      <c r="D34" t="n">
-        <v>63.97778011946262</v>
-      </c>
-      <c r="E34" t="n">
-        <v>54</v>
-      </c>
-      <c r="F34" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1197,22 +1157,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2765.485480144469</v>
+        <v>2696.701701496484</v>
       </c>
       <c r="C2" t="n">
-        <v>52.58788339669575</v>
+        <v>51.92977663630457</v>
       </c>
       <c r="D2" t="n">
-        <v>47.48273191214307</v>
+        <v>43.39746637238864</v>
       </c>
       <c r="E2" t="n">
-        <v>1.450781253191918</v>
+        <v>1.273926375886993</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6491705461267995</v>
+        <v>0.6793982361903675</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8598824495635903</v>
+        <v>0.8020503041074548</v>
       </c>
       <c r="H2" t="n">
         <v>0.3333333333333333</v>
@@ -1223,22 +1183,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1402.209693235782</v>
+        <v>1407.751376344201</v>
       </c>
       <c r="C3" t="n">
-        <v>37.446090493345</v>
+        <v>37.52001301098123</v>
       </c>
       <c r="D3" t="n">
-        <v>27.49060140222011</v>
+        <v>25.9286409782917</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8756824942344495</v>
+        <v>0.7719317641638096</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4195032372734923</v>
+        <v>0.3772138408166759</v>
       </c>
       <c r="G3" t="n">
-        <v>0.541709052718176</v>
+        <v>0.5116025305783257</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1249,22 +1209,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>345.5653053531387</v>
+        <v>430.4279431246602</v>
       </c>
       <c r="C4" t="n">
-        <v>18.58938690094804</v>
+        <v>20.74675741229603</v>
       </c>
       <c r="D4" t="n">
-        <v>16.5034370685631</v>
+        <v>17.08192380748807</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2824924239345745</v>
+        <v>0.2616539378082982</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2442558231319959</v>
+        <v>0.2970557811527853</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2644220453669556</v>
+        <v>0.2570394053168178</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1275,25 +1235,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1023.699121200187</v>
+        <v>1070.637202388859</v>
       </c>
       <c r="C5" t="n">
-        <v>31.99529842336507</v>
+        <v>32.72059294066749</v>
       </c>
       <c r="D5" t="n">
-        <v>24.80711948553941</v>
+        <v>25.38666133237605</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8326391648867369</v>
+        <v>0.8506046544517147</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4104052276682031</v>
+        <v>0.3802264411039919</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4618770834678063</v>
+        <v>0.4672365415761875</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7037037037037036</v>
+        <v>0.7200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAGRA4451108/OBAGRA4451108_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451108/OBAGRA4451108_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44796</v>
       </c>
       <c r="B2" t="n">
-        <v>56.0053595818525</v>
+        <v>58.74318915172871</v>
       </c>
       <c r="C2" t="n">
-        <v>26.78594758509114</v>
+        <v>27.78007354792494</v>
       </c>
       <c r="D2" t="n">
-        <v>88.91032367321425</v>
+        <v>90.13105194402067</v>
       </c>
       <c r="E2" t="n">
         <v>126</v>
@@ -496,13 +496,13 @@
         <v>44803</v>
       </c>
       <c r="B3" t="n">
-        <v>51.7027688124158</v>
+        <v>55.52582644418191</v>
       </c>
       <c r="C3" t="n">
-        <v>17.29679344749626</v>
+        <v>24.56014766621805</v>
       </c>
       <c r="D3" t="n">
-        <v>84.62410404693746</v>
+        <v>86.23261666956402</v>
       </c>
       <c r="E3" t="n">
         <v>48</v>
@@ -516,13 +516,13 @@
         <v>44806</v>
       </c>
       <c r="B4" t="n">
-        <v>38.4722116571559</v>
+        <v>43.612184412361</v>
       </c>
       <c r="C4" t="n">
-        <v>6.483147982998657</v>
+        <v>14.82405390092328</v>
       </c>
       <c r="D4" t="n">
-        <v>72.63568655822722</v>
+        <v>75.81127143234761</v>
       </c>
       <c r="E4" t="n">
         <v>120</v>
@@ -536,13 +536,13 @@
         <v>44817</v>
       </c>
       <c r="B5" t="n">
-        <v>91.17634673758751</v>
+        <v>95.31891893923347</v>
       </c>
       <c r="C5" t="n">
-        <v>56.19272156712988</v>
+        <v>64.70731187715994</v>
       </c>
       <c r="D5" t="n">
-        <v>124.6902479150863</v>
+        <v>125.6867237023831</v>
       </c>
       <c r="E5" t="n">
         <v>84</v>
@@ -556,13 +556,13 @@
         <v>44824</v>
       </c>
       <c r="B6" t="n">
-        <v>110.6763853711319</v>
+        <v>114.5835111223599</v>
       </c>
       <c r="C6" t="n">
-        <v>76.6507695889662</v>
+        <v>81.79971795833937</v>
       </c>
       <c r="D6" t="n">
-        <v>142.4745100939913</v>
+        <v>146.4370540800384</v>
       </c>
       <c r="E6" t="n">
         <v>78</v>
@@ -576,13 +576,13 @@
         <v>44831</v>
       </c>
       <c r="B7" t="n">
-        <v>105.3094033182115</v>
+        <v>110.2259008137919</v>
       </c>
       <c r="C7" t="n">
-        <v>70.86174650616177</v>
+        <v>76.39785492409659</v>
       </c>
       <c r="D7" t="n">
-        <v>139.3203520689361</v>
+        <v>145.3998813966653</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
@@ -596,13 +596,13 @@
         <v>44838</v>
       </c>
       <c r="B8" t="n">
-        <v>82.66589094986091</v>
+        <v>87.53408440875953</v>
       </c>
       <c r="C8" t="n">
-        <v>49.93306718123313</v>
+        <v>56.29887084893372</v>
       </c>
       <c r="D8" t="n">
-        <v>119.5779711142587</v>
+        <v>120.7737689284375</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
@@ -616,13 +616,13 @@
         <v>44873</v>
       </c>
       <c r="B9" t="n">
-        <v>56.85433687628116</v>
+        <v>60.90398601520591</v>
       </c>
       <c r="C9" t="n">
-        <v>19.60466403938538</v>
+        <v>25.43096174462385</v>
       </c>
       <c r="D9" t="n">
-        <v>92.31719943017603</v>
+        <v>92.9423685171016</v>
       </c>
       <c r="E9" t="n">
         <v>42</v>
@@ -636,13 +636,13 @@
         <v>44880</v>
       </c>
       <c r="B10" t="n">
-        <v>44.24695652097347</v>
+        <v>47.46216001633193</v>
       </c>
       <c r="C10" t="n">
-        <v>10.6641023253618</v>
+        <v>13.21580183033603</v>
       </c>
       <c r="D10" t="n">
-        <v>79.15169925652431</v>
+        <v>79.74599906290797</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -656,13 +656,13 @@
         <v>44887</v>
       </c>
       <c r="B11" t="n">
-        <v>47.58119245526617</v>
+        <v>53.15443151428376</v>
       </c>
       <c r="C11" t="n">
-        <v>13.70757795176942</v>
+        <v>22.02877532381626</v>
       </c>
       <c r="D11" t="n">
-        <v>82.34389917127669</v>
+        <v>87.56316966647545</v>
       </c>
       <c r="E11" t="n">
         <v>36</v>
@@ -676,13 +676,13 @@
         <v>44894</v>
       </c>
       <c r="B12" t="n">
-        <v>58.01025197606883</v>
+        <v>63.03318581894791</v>
       </c>
       <c r="C12" t="n">
-        <v>23.59542713482914</v>
+        <v>31.05638886855841</v>
       </c>
       <c r="D12" t="n">
-        <v>91.26735548006931</v>
+        <v>95.94520589944844</v>
       </c>
       <c r="E12" t="n">
         <v>18</v>
@@ -696,13 +696,13 @@
         <v>44897</v>
       </c>
       <c r="B13" t="n">
-        <v>47.71656341097926</v>
+        <v>53.07050516589635</v>
       </c>
       <c r="C13" t="n">
-        <v>13.8028479147848</v>
+        <v>20.28256253686357</v>
       </c>
       <c r="D13" t="n">
-        <v>82.64599676184662</v>
+        <v>89.8144824386552</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -716,13 +716,13 @@
         <v>44901</v>
       </c>
       <c r="B14" t="n">
-        <v>52.25970095988021</v>
+        <v>57.16191978190886</v>
       </c>
       <c r="C14" t="n">
-        <v>19.93380707507151</v>
+        <v>20.99469484238024</v>
       </c>
       <c r="D14" t="n">
-        <v>87.43866067552328</v>
+        <v>89.93533083058483</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
@@ -736,13 +736,13 @@
         <v>44908</v>
       </c>
       <c r="B15" t="n">
-        <v>34.20754355518149</v>
+        <v>38.10397389288514</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1847858278680505</v>
+        <v>5.35952769343588</v>
       </c>
       <c r="D15" t="n">
-        <v>68.28924472076443</v>
+        <v>73.08250755344834</v>
       </c>
       <c r="E15" t="n">
         <v>36</v>
@@ -756,13 +756,13 @@
         <v>44915</v>
       </c>
       <c r="B16" t="n">
-        <v>33.27091069206909</v>
+        <v>36.67054853930256</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.725875271749189</v>
+        <v>5.013836414004646</v>
       </c>
       <c r="D16" t="n">
-        <v>65.65719104448856</v>
+        <v>71.73278680715123</v>
       </c>
       <c r="E16" t="n">
         <v>42</v>
@@ -776,13 +776,13 @@
         <v>44929</v>
       </c>
       <c r="B17" t="n">
-        <v>73.14409804549013</v>
+        <v>75.69665104612662</v>
       </c>
       <c r="C17" t="n">
-        <v>39.60668734876004</v>
+        <v>43.52914804523504</v>
       </c>
       <c r="D17" t="n">
-        <v>106.7616502067151</v>
+        <v>110.6997883891919</v>
       </c>
       <c r="E17" t="n">
         <v>54</v>
@@ -796,13 +796,13 @@
         <v>44950</v>
       </c>
       <c r="B18" t="n">
-        <v>57.84298131430039</v>
+        <v>60.52379231988401</v>
       </c>
       <c r="C18" t="n">
-        <v>23.40470157120993</v>
+        <v>26.96302892097462</v>
       </c>
       <c r="D18" t="n">
-        <v>91.96600063125726</v>
+        <v>96.38426716563495</v>
       </c>
       <c r="E18" t="n">
         <v>42</v>
@@ -816,13 +816,13 @@
         <v>44957</v>
       </c>
       <c r="B19" t="n">
-        <v>33.320765743663</v>
+        <v>38.53154249631451</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.6154445473529351</v>
+        <v>4.700737860264639</v>
       </c>
       <c r="D19" t="n">
-        <v>66.788569040654</v>
+        <v>72.27854766335453</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
@@ -836,13 +836,13 @@
         <v>44960</v>
       </c>
       <c r="B20" t="n">
-        <v>21.255770000746</v>
+        <v>26.91422766463963</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.43193940021579</v>
+        <v>-5.786190797097246</v>
       </c>
       <c r="D20" t="n">
-        <v>56.33692846861477</v>
+        <v>60.99510599413011</v>
       </c>
       <c r="E20" t="n">
         <v>12</v>
@@ -856,13 +856,13 @@
         <v>44980</v>
       </c>
       <c r="B21" t="n">
-        <v>65.05195263665746</v>
+        <v>58.51883020476799</v>
       </c>
       <c r="C21" t="n">
-        <v>31.49459955028641</v>
+        <v>24.77919127907007</v>
       </c>
       <c r="D21" t="n">
-        <v>97.41084468582071</v>
+        <v>91.7096080540703</v>
       </c>
       <c r="E21" t="n">
         <v>78</v>
@@ -876,13 +876,13 @@
         <v>44985</v>
       </c>
       <c r="B22" t="n">
-        <v>78.05372504934272</v>
+        <v>71.70635939791694</v>
       </c>
       <c r="C22" t="n">
-        <v>43.80489650916125</v>
+        <v>39.72266049528921</v>
       </c>
       <c r="D22" t="n">
-        <v>113.0558055037747</v>
+        <v>102.942122691637</v>
       </c>
       <c r="E22" t="n">
         <v>30</v>
@@ -896,13 +896,13 @@
         <v>44992</v>
       </c>
       <c r="B23" t="n">
-        <v>78.50710947055046</v>
+        <v>77.16106023291252</v>
       </c>
       <c r="C23" t="n">
-        <v>42.58554217510144</v>
+        <v>41.76726376361876</v>
       </c>
       <c r="D23" t="n">
-        <v>111.0793399212761</v>
+        <v>111.1497738913411</v>
       </c>
       <c r="E23" t="n">
         <v>54</v>
@@ -916,13 +916,13 @@
         <v>44999</v>
       </c>
       <c r="B24" t="n">
-        <v>70.40884863820068</v>
+        <v>73.86724100585484</v>
       </c>
       <c r="C24" t="n">
-        <v>34.45186332177008</v>
+        <v>40.0008959440629</v>
       </c>
       <c r="D24" t="n">
-        <v>107.0033608660675</v>
+        <v>106.0084320151199</v>
       </c>
       <c r="E24" t="n">
         <v>54</v>
@@ -936,13 +936,13 @@
         <v>45006</v>
       </c>
       <c r="B25" t="n">
-        <v>57.6602469216122</v>
+        <v>61.73348276421379</v>
       </c>
       <c r="C25" t="n">
-        <v>21.8125226575627</v>
+        <v>27.62437141248694</v>
       </c>
       <c r="D25" t="n">
-        <v>92.50840378006858</v>
+        <v>94.04424730852223</v>
       </c>
       <c r="E25" t="n">
         <v>78</v>
@@ -956,13 +956,13 @@
         <v>45013</v>
       </c>
       <c r="B26" t="n">
-        <v>55.77962030064073</v>
+        <v>55.92927953172376</v>
       </c>
       <c r="C26" t="n">
-        <v>23.72394907244089</v>
+        <v>23.34117684945196</v>
       </c>
       <c r="D26" t="n">
-        <v>86.48968893518716</v>
+        <v>90.09936621267217</v>
       </c>
       <c r="E26" t="n">
         <v>90</v>
@@ -976,13 +976,13 @@
         <v>45020</v>
       </c>
       <c r="B27" t="n">
-        <v>69.6830747289967</v>
+        <v>66.55292925810383</v>
       </c>
       <c r="C27" t="n">
-        <v>37.12968089492216</v>
+        <v>32.55665553702528</v>
       </c>
       <c r="D27" t="n">
-        <v>103.9782051904028</v>
+        <v>98.92545405291625</v>
       </c>
       <c r="E27" t="n">
         <v>66</v>
@@ -996,13 +996,13 @@
         <v>45027</v>
       </c>
       <c r="B28" t="n">
-        <v>91.69885038779505</v>
+        <v>86.53990712034948</v>
       </c>
       <c r="C28" t="n">
-        <v>56.27182327053227</v>
+        <v>52.7901467900833</v>
       </c>
       <c r="D28" t="n">
-        <v>126.1660744480378</v>
+        <v>120.1679140040017</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -1016,13 +1016,13 @@
         <v>45034</v>
       </c>
       <c r="B29" t="n">
-        <v>105.1740035620049</v>
+        <v>101.5166772938276</v>
       </c>
       <c r="C29" t="n">
-        <v>71.85229087846234</v>
+        <v>66.84901920081457</v>
       </c>
       <c r="D29" t="n">
-        <v>141.323144657613</v>
+        <v>135.0690092742487</v>
       </c>
       <c r="E29" t="n">
         <v>120</v>
@@ -1036,13 +1036,13 @@
         <v>45040</v>
       </c>
       <c r="B30" t="n">
-        <v>75.91797563549919</v>
+        <v>80.05477322434294</v>
       </c>
       <c r="C30" t="n">
-        <v>41.65981451729077</v>
+        <v>47.89675289175626</v>
       </c>
       <c r="D30" t="n">
-        <v>111.5881336006501</v>
+        <v>113.6516797366484</v>
       </c>
       <c r="E30" t="n">
         <v>108</v>
@@ -1056,13 +1056,13 @@
         <v>45048</v>
       </c>
       <c r="B31" t="n">
-        <v>80.71049485907702</v>
+        <v>86.10295283507023</v>
       </c>
       <c r="C31" t="n">
-        <v>46.44898866612979</v>
+        <v>53.29386378343067</v>
       </c>
       <c r="D31" t="n">
-        <v>116.3664759486094</v>
+        <v>118.9111083194463</v>
       </c>
       <c r="E31" t="n">
         <v>78</v>
@@ -1076,13 +1076,13 @@
         <v>45062</v>
       </c>
       <c r="B32" t="n">
-        <v>29.18098723511383</v>
+        <v>31.84519592869093</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.727797587695648</v>
+        <v>-0.9818848348407395</v>
       </c>
       <c r="D32" t="n">
-        <v>61.99893256111737</v>
+        <v>67.36611630667967</v>
       </c>
       <c r="E32" t="n">
         <v>54</v>
@@ -1157,22 +1157,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2696.701701496484</v>
+        <v>2633.800247141241</v>
       </c>
       <c r="C2" t="n">
-        <v>51.92977663630457</v>
+        <v>51.32056358947397</v>
       </c>
       <c r="D2" t="n">
-        <v>43.39746637238864</v>
+        <v>45.64649684958912</v>
       </c>
       <c r="E2" t="n">
-        <v>1.273926375886993</v>
+        <v>1.43628860472446</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6793982361903675</v>
+        <v>0.6365651298969918</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8020503041074548</v>
+        <v>0.827168148618893</v>
       </c>
       <c r="H2" t="n">
         <v>0.3333333333333333</v>
@@ -1183,22 +1183,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1407.751376344201</v>
+        <v>1392.286827231049</v>
       </c>
       <c r="C3" t="n">
-        <v>37.52001301098123</v>
+        <v>37.31335990273522</v>
       </c>
       <c r="D3" t="n">
-        <v>25.9286409782917</v>
+        <v>28.59483173098873</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7719317641638096</v>
+        <v>0.9183270125625379</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3772138408166759</v>
+        <v>0.4410426742829526</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5116025305783257</v>
+        <v>0.5694633898414413</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1209,22 +1209,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>430.4279431246602</v>
+        <v>398.9512662731715</v>
       </c>
       <c r="C4" t="n">
-        <v>20.74675741229603</v>
+        <v>19.97376444922618</v>
       </c>
       <c r="D4" t="n">
-        <v>17.08192380748807</v>
+        <v>18.33352053061853</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2616539378082982</v>
+        <v>0.3280598413115685</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2970557811527853</v>
+        <v>0.2843847498771505</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2570394053168178</v>
+        <v>0.3025135037185764</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1235,22 +1235,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1070.637202388859</v>
+        <v>1148.416103606575</v>
       </c>
       <c r="C5" t="n">
-        <v>32.72059294066749</v>
+        <v>33.88828859070011</v>
       </c>
       <c r="D5" t="n">
-        <v>25.38666133237605</v>
+        <v>26.84443416477507</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8506046544517147</v>
+        <v>0.9259083234528139</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3802264411039919</v>
+        <v>0.4289085228317133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4672365415761875</v>
+        <v>0.4865091643192183</v>
       </c>
       <c r="H5" t="n">
         <v>0.7200000000000001</v>
